--- a/Code/Results/Cases/Case_3_79/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_79/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.7013284239541</v>
+        <v>15.44917646495029</v>
       </c>
       <c r="C2">
-        <v>18.30754309051537</v>
+        <v>11.09444116004228</v>
       </c>
       <c r="D2">
-        <v>8.331444901837621</v>
+        <v>10.49533912789452</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>28.7191961937321</v>
+        <v>33.46927583699289</v>
       </c>
       <c r="G2">
-        <v>34.56344953480725</v>
+        <v>34.80690967482921</v>
       </c>
       <c r="H2">
-        <v>10.50963870624252</v>
+        <v>15.40028653559042</v>
       </c>
       <c r="I2">
-        <v>13.89103619496652</v>
+        <v>20.96967096590631</v>
       </c>
       <c r="J2">
-        <v>8.310492095352094</v>
+        <v>11.33186244100798</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.10396587590267</v>
+        <v>16.79162394413106</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.14602303811892</v>
+        <v>14.86898759129795</v>
       </c>
       <c r="C3">
-        <v>17.04365890761216</v>
+        <v>10.54071566256679</v>
       </c>
       <c r="D3">
-        <v>7.949521533392902</v>
+        <v>10.44192863122314</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27.50910597743094</v>
+        <v>33.36177026009133</v>
       </c>
       <c r="G3">
-        <v>32.82063695631453</v>
+        <v>34.56357270112459</v>
       </c>
       <c r="H3">
-        <v>10.32423674108669</v>
+        <v>15.42843967714146</v>
       </c>
       <c r="I3">
-        <v>13.81586360597133</v>
+        <v>21.05269386136897</v>
       </c>
       <c r="J3">
-        <v>8.023624291285071</v>
+        <v>11.31532167394267</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.3093733729434</v>
+        <v>16.85279672142622</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.13686697061093</v>
+        <v>14.50365563295848</v>
       </c>
       <c r="C4">
-        <v>16.22464190108006</v>
+        <v>10.18720076475601</v>
       </c>
       <c r="D4">
-        <v>7.709856591555857</v>
+        <v>10.41081180161269</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.77363666823695</v>
+        <v>33.30660983154578</v>
       </c>
       <c r="G4">
-        <v>31.7531397819962</v>
+        <v>34.42812223927739</v>
       </c>
       <c r="H4">
-        <v>10.22042060161457</v>
+        <v>15.44955248768197</v>
       </c>
       <c r="I4">
-        <v>13.78935685678061</v>
+        <v>21.10955180328134</v>
       </c>
       <c r="J4">
-        <v>7.848980495577726</v>
+        <v>11.30757151028261</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.43850992156626</v>
+        <v>16.89224534767201</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.71188003183731</v>
+        <v>14.35272888074675</v>
       </c>
       <c r="C5">
-        <v>15.87996556538848</v>
+        <v>10.03992388208138</v>
       </c>
       <c r="D5">
-        <v>7.611012412842492</v>
+        <v>10.39856233888271</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>26.47616852511777</v>
+        <v>33.2868712435663</v>
       </c>
       <c r="G5">
-        <v>31.31931880270033</v>
+        <v>34.37648442098389</v>
       </c>
       <c r="H5">
-        <v>10.180577738334</v>
+        <v>15.45911502735422</v>
       </c>
       <c r="I5">
-        <v>13.78323511125165</v>
+        <v>21.13419314976219</v>
       </c>
       <c r="J5">
-        <v>7.778261495749897</v>
+        <v>11.3050199003665</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.49191027209283</v>
+        <v>16.90879714659867</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.64047750300002</v>
+        <v>14.32755109029291</v>
       </c>
       <c r="C6">
-        <v>15.82206960972915</v>
+        <v>10.015280371576</v>
       </c>
       <c r="D6">
-        <v>7.594532086343382</v>
+        <v>10.39655460456612</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.42692042677456</v>
+        <v>33.28375940907267</v>
       </c>
       <c r="G6">
-        <v>31.24737262543666</v>
+        <v>34.36812625280085</v>
       </c>
       <c r="H6">
-        <v>10.17410883003877</v>
+        <v>15.46076069129634</v>
       </c>
       <c r="I6">
-        <v>13.78249353659112</v>
+        <v>21.13837346052379</v>
       </c>
       <c r="J6">
-        <v>7.766548112827152</v>
+        <v>11.30463288651049</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.50082475958305</v>
+        <v>16.91157435886655</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.13119126871625</v>
+        <v>14.5016281574725</v>
       </c>
       <c r="C7">
-        <v>16.22003783483935</v>
+        <v>10.18522729568199</v>
       </c>
       <c r="D7">
-        <v>7.708528145179431</v>
+        <v>10.410644844802</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.76961534582819</v>
+        <v>33.30633252433554</v>
       </c>
       <c r="G7">
-        <v>31.74728351496339</v>
+        <v>34.42741136318752</v>
       </c>
       <c r="H7">
-        <v>10.21987337402242</v>
+        <v>15.4496775735956</v>
       </c>
       <c r="I7">
-        <v>13.78925569616511</v>
+        <v>21.10987817830744</v>
       </c>
       <c r="J7">
-        <v>7.848024830689824</v>
+        <v>11.30753464026323</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.43922693109223</v>
+        <v>16.89246664129803</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.17623272134892</v>
+        <v>15.25114872329513</v>
       </c>
       <c r="C8">
-        <v>17.8806095376514</v>
+        <v>10.9064252998534</v>
       </c>
       <c r="D8">
-        <v>8.200894790476324</v>
+        <v>10.4765806625856</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>28.30059012307694</v>
+        <v>33.42996456057222</v>
       </c>
       <c r="G8">
-        <v>33.96228502052312</v>
+        <v>34.72014174943762</v>
       </c>
       <c r="H8">
-        <v>10.44359984291765</v>
+        <v>15.40919758407444</v>
       </c>
       <c r="I8">
-        <v>13.8608830962205</v>
+        <v>20.99707196028341</v>
       </c>
       <c r="J8">
-        <v>8.211312125358008</v>
+        <v>11.32566095964947</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.17417531031997</v>
+        <v>16.8123252057701</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.7622469847714</v>
+        <v>16.63964913505084</v>
       </c>
       <c r="C9">
-        <v>20.80116746594197</v>
+        <v>12.20669493368631</v>
       </c>
       <c r="D9">
-        <v>9.121215774687871</v>
+        <v>10.61876607015449</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>31.34969396776808</v>
+        <v>33.75778806123581</v>
       </c>
       <c r="G9">
-        <v>38.30769060075126</v>
+        <v>35.40239990945884</v>
       </c>
       <c r="H9">
-        <v>10.96411443504111</v>
+        <v>15.36031747194778</v>
       </c>
       <c r="I9">
-        <v>14.16857549091189</v>
+        <v>20.82286510266748</v>
       </c>
       <c r="J9">
-        <v>8.932757346079169</v>
+        <v>11.38020503935202</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>10.6775248569306</v>
+        <v>16.67008991651754</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.14654005745422</v>
+        <v>17.59955552870298</v>
       </c>
       <c r="C10">
-        <v>22.74994452977744</v>
+        <v>13.0852597636549</v>
       </c>
       <c r="D10">
-        <v>9.765481628784062</v>
+        <v>10.73048379638974</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>33.60530068675436</v>
+        <v>34.04950749177087</v>
       </c>
       <c r="G10">
-        <v>41.4836745303294</v>
+        <v>35.9656996156148</v>
       </c>
       <c r="H10">
-        <v>11.3992795672158</v>
+        <v>15.34317088029587</v>
       </c>
       <c r="I10">
-        <v>14.51143928046322</v>
+        <v>20.72398550976802</v>
       </c>
       <c r="J10">
-        <v>9.465323526472337</v>
+        <v>11.43171029780734</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.32561040757025</v>
+        <v>16.57460118294977</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.17881021177428</v>
+        <v>18.02133626073326</v>
       </c>
       <c r="C11">
-        <v>23.59557569989888</v>
+        <v>13.46715497217175</v>
       </c>
       <c r="D11">
-        <v>10.05109447911235</v>
+        <v>10.78274476030848</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>34.63328919868976</v>
+        <v>34.19293520723063</v>
       </c>
       <c r="G11">
-        <v>42.92333937402627</v>
+        <v>36.23446098255506</v>
       </c>
       <c r="H11">
-        <v>11.609296866891</v>
+        <v>15.33947513357533</v>
       </c>
       <c r="I11">
-        <v>14.69576505668483</v>
+        <v>20.68541749747467</v>
       </c>
       <c r="J11">
-        <v>9.707767165961592</v>
+        <v>11.45758201836099</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.168101616804</v>
+        <v>16.53309980864204</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.56234790767794</v>
+        <v>18.17878623648515</v>
       </c>
       <c r="C12">
-        <v>23.91008160218443</v>
+        <v>13.60914165236536</v>
       </c>
       <c r="D12">
-        <v>10.15815016325296</v>
+        <v>10.80272949303357</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>35.02279928387029</v>
+        <v>34.24875650272421</v>
       </c>
       <c r="G12">
-        <v>43.46777671292081</v>
+        <v>36.33794411099772</v>
       </c>
       <c r="H12">
-        <v>11.69061019320365</v>
+        <v>15.33866767490058</v>
       </c>
       <c r="I12">
-        <v>14.76987405161589</v>
+        <v>20.67174236785828</v>
       </c>
       <c r="J12">
-        <v>9.799585826658026</v>
+        <v>11.46772577203788</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.10881079512169</v>
+        <v>16.5176615462932</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.4800707521344</v>
+        <v>18.14497936086687</v>
       </c>
       <c r="C13">
-        <v>23.84259863816993</v>
+        <v>13.5786802244958</v>
       </c>
       <c r="D13">
-        <v>10.13514296302763</v>
+        <v>10.79841696788703</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>34.93890081783358</v>
+        <v>34.23666787392199</v>
       </c>
       <c r="G13">
-        <v>43.350553790303</v>
+        <v>36.31558264242308</v>
       </c>
       <c r="H13">
-        <v>11.67301769056003</v>
+        <v>15.33881521906951</v>
       </c>
       <c r="I13">
-        <v>14.75371811295539</v>
+        <v>20.6746460829335</v>
       </c>
       <c r="J13">
-        <v>9.779810642478438</v>
+        <v>11.46552578905221</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.12156462311146</v>
+        <v>16.52097413210582</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.21051059758767</v>
+        <v>18.03433592056825</v>
       </c>
       <c r="C14">
-        <v>23.6215638768759</v>
+        <v>13.47888935970704</v>
       </c>
       <c r="D14">
-        <v>10.0599241475308</v>
+        <v>10.78438508775234</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>34.66532972864515</v>
+        <v>34.19749763360013</v>
       </c>
       <c r="G14">
-        <v>42.96814484789683</v>
+        <v>36.24294088320685</v>
       </c>
       <c r="H14">
-        <v>11.61595049367704</v>
+        <v>15.33939682887869</v>
       </c>
       <c r="I14">
-        <v>14.70177439474087</v>
+        <v>20.68427376033794</v>
       </c>
       <c r="J14">
-        <v>9.715320962983693</v>
+        <v>11.45840962973411</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.16321671340445</v>
+        <v>16.53182414017747</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.04444385930325</v>
+        <v>17.96626456903221</v>
       </c>
       <c r="C15">
-        <v>23.48543431028447</v>
+        <v>13.41742027896901</v>
       </c>
       <c r="D15">
-        <v>10.01370673370567</v>
+        <v>10.77581512948782</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>34.49778993655249</v>
+        <v>34.17370010682227</v>
       </c>
       <c r="G15">
-        <v>42.73381482971346</v>
+        <v>36.19866551834711</v>
       </c>
       <c r="H15">
-        <v>11.58122915060393</v>
+        <v>15.33983023108446</v>
       </c>
       <c r="I15">
-        <v>14.67052523906066</v>
+        <v>20.69029229148579</v>
       </c>
       <c r="J15">
-        <v>9.675820358079974</v>
+        <v>11.45409578760914</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.18877549994826</v>
+        <v>16.53850617722368</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.07803932263965</v>
+        <v>17.57168023362612</v>
       </c>
       <c r="C16">
-        <v>22.69387152092038</v>
+        <v>13.05993785361117</v>
       </c>
       <c r="D16">
-        <v>9.746663325280704</v>
+        <v>10.72709634091094</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>33.53815240369169</v>
+        <v>34.040347127968</v>
       </c>
       <c r="G16">
-        <v>41.38948399503714</v>
+        <v>35.94837960559764</v>
       </c>
       <c r="H16">
-        <v>11.38580127439134</v>
+        <v>15.34349516170536</v>
       </c>
       <c r="I16">
-        <v>14.49998369855962</v>
+        <v>20.72663571578485</v>
       </c>
       <c r="J16">
-        <v>9.449481204956994</v>
+        <v>11.43006828605172</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.33595443156856</v>
+        <v>16.5773522749353</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.47188748461437</v>
+        <v>17.32570586258715</v>
       </c>
       <c r="C17">
-        <v>22.19791477214645</v>
+        <v>12.83602616008632</v>
       </c>
       <c r="D17">
-        <v>9.580904909557635</v>
+        <v>10.69756902351349</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>32.94988164039781</v>
+        <v>33.96126293983744</v>
       </c>
       <c r="G17">
-        <v>40.563439992597</v>
+        <v>35.79797943124156</v>
       </c>
       <c r="H17">
-        <v>11.26903534395605</v>
+        <v>15.34679612439137</v>
       </c>
       <c r="I17">
-        <v>14.40279168261691</v>
+        <v>20.75057917192565</v>
       </c>
       <c r="J17">
-        <v>9.310659411680019</v>
+        <v>11.41595057368753</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.42689232522504</v>
+        <v>16.60167838600277</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.11830615625488</v>
+        <v>17.18283335229236</v>
       </c>
       <c r="C18">
-        <v>21.90879557621588</v>
+        <v>12.70556907698046</v>
       </c>
       <c r="D18">
-        <v>9.484862768252238</v>
+        <v>10.68072199852665</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.61170086966874</v>
+        <v>33.91678734054906</v>
       </c>
       <c r="G18">
-        <v>40.08783386816434</v>
+        <v>35.71265678017464</v>
       </c>
       <c r="H18">
-        <v>11.20300645108165</v>
+        <v>15.34908098260453</v>
       </c>
       <c r="I18">
-        <v>14.34954508803533</v>
+        <v>20.76495397894096</v>
       </c>
       <c r="J18">
-        <v>9.230829398988909</v>
+        <v>11.40806055914245</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.47944105606897</v>
+        <v>16.61585250007029</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.99773642012713</v>
+        <v>17.13422386532058</v>
       </c>
       <c r="C19">
-        <v>21.81023745308334</v>
+        <v>12.66111437238957</v>
       </c>
       <c r="D19">
-        <v>9.452224980035515</v>
+        <v>10.67504166958213</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>32.497231471407</v>
+        <v>33.90190337014419</v>
       </c>
       <c r="G19">
-        <v>39.92671978668253</v>
+        <v>35.68397395355055</v>
       </c>
       <c r="H19">
-        <v>11.18084313526785</v>
+        <v>15.34992086963997</v>
       </c>
       <c r="I19">
-        <v>14.33196563876584</v>
+        <v>20.76992440077238</v>
       </c>
       <c r="J19">
-        <v>9.203803878185981</v>
+        <v>11.4054287864172</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.49727552494043</v>
+        <v>16.62068296975884</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.53692335271717</v>
+        <v>17.35203557282473</v>
       </c>
       <c r="C20">
-        <v>22.25110837201364</v>
+        <v>12.8600352545583</v>
       </c>
       <c r="D20">
-        <v>9.598623097553755</v>
+        <v>10.7006982386399</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>33.01248626751205</v>
+        <v>33.96957713037964</v>
       </c>
       <c r="G20">
-        <v>40.65142456596893</v>
+        <v>35.8138679346667</v>
       </c>
       <c r="H20">
-        <v>11.28134779378127</v>
+        <v>15.3464047433411</v>
       </c>
       <c r="I20">
-        <v>14.41286138442926</v>
+        <v>20.74796786945958</v>
       </c>
       <c r="J20">
-        <v>9.325435664813618</v>
+        <v>11.41742964231616</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.41718673691951</v>
+        <v>16.59906996275868</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.28988531018115</v>
+        <v>18.06689710874684</v>
       </c>
       <c r="C21">
-        <v>23.68664092475104</v>
+        <v>13.50827221915199</v>
       </c>
       <c r="D21">
-        <v>10.08204771203651</v>
+        <v>10.78850140925273</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>34.74567782366007</v>
+        <v>34.20896223086592</v>
       </c>
       <c r="G21">
-        <v>43.08048695432797</v>
+        <v>36.26423188765903</v>
       </c>
       <c r="H21">
-        <v>11.63266365671639</v>
+        <v>15.33920991534963</v>
       </c>
       <c r="I21">
-        <v>14.71691277737814</v>
+        <v>20.68142058592364</v>
       </c>
       <c r="J21">
-        <v>9.734262903082101</v>
+        <v>11.46049044650701</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.15097299290757</v>
+        <v>16.52862970984124</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.39273158422291</v>
+        <v>18.52082559302202</v>
       </c>
       <c r="C22">
-        <v>24.59161091365164</v>
+        <v>13.91658516420674</v>
       </c>
       <c r="D22">
-        <v>10.39158265948505</v>
+        <v>10.84701438983019</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>35.87981105358129</v>
+        <v>34.37418813912803</v>
       </c>
       <c r="G22">
-        <v>44.66382784941307</v>
+        <v>36.56848755004633</v>
       </c>
       <c r="H22">
-        <v>11.87269746884829</v>
+        <v>15.33795913058395</v>
       </c>
       <c r="I22">
-        <v>14.94084561243418</v>
+        <v>20.64335067609168</v>
       </c>
       <c r="J22">
-        <v>10.0015205200569</v>
+        <v>11.49065160670293</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>9.979045711128542</v>
+        <v>16.48420937376746</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.80798042557618</v>
+        <v>18.27980826439908</v>
       </c>
       <c r="C23">
-        <v>24.11159515014701</v>
+        <v>13.70008607892276</v>
       </c>
       <c r="D23">
-        <v>10.22696918766899</v>
+        <v>10.81568583590726</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>35.27436978534201</v>
+        <v>34.28521307603128</v>
       </c>
       <c r="G23">
-        <v>43.81912391563297</v>
+        <v>36.40522411583238</v>
       </c>
       <c r="H23">
-        <v>11.74361441171138</v>
+        <v>15.33831037897184</v>
       </c>
       <c r="I23">
-        <v>14.81894641294882</v>
+        <v>20.66317069072462</v>
       </c>
       <c r="J23">
-        <v>9.858875050341721</v>
+        <v>11.4743709174289</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.07062322827618</v>
+        <v>16.50776980217178</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.50753652396243</v>
+        <v>17.34013644397404</v>
       </c>
       <c r="C24">
-        <v>22.22707197636121</v>
+        <v>12.84918611730963</v>
       </c>
       <c r="D24">
-        <v>9.590615024420591</v>
+        <v>10.69928311890327</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>32.98418263707765</v>
+        <v>33.96581519559069</v>
       </c>
       <c r="G24">
-        <v>40.61164892701665</v>
+        <v>35.80668117072827</v>
       </c>
       <c r="H24">
-        <v>11.27577790832751</v>
+        <v>15.3465804810888</v>
       </c>
       <c r="I24">
-        <v>14.40830069676451</v>
+        <v>20.74914654165425</v>
       </c>
       <c r="J24">
-        <v>9.318755380227588</v>
+        <v>11.41676024971953</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.42157379946984</v>
+        <v>16.60024864299894</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.83672862479291</v>
+        <v>16.2739124316183</v>
       </c>
       <c r="C25">
-        <v>20.04625819841887</v>
+        <v>11.86797406010182</v>
       </c>
       <c r="D25">
-        <v>8.877600606658852</v>
+        <v>10.57898182768162</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>30.52139197590454</v>
+        <v>33.66006991399135</v>
       </c>
       <c r="G25">
-        <v>37.13416667397395</v>
+        <v>35.2066245247873</v>
       </c>
       <c r="H25">
-        <v>10.81423756974933</v>
+        <v>15.37025648616859</v>
       </c>
       <c r="I25">
-        <v>14.06586498584664</v>
+        <v>20.86491282420375</v>
       </c>
       <c r="J25">
-        <v>8.736970865319801</v>
+        <v>11.36342913597897</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>10.8095237436654</v>
+        <v>16.70697975068731</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_79/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_79/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.44917646495029</v>
+        <v>22.70132842395414</v>
       </c>
       <c r="C2">
-        <v>11.09444116004228</v>
+        <v>18.30754309051531</v>
       </c>
       <c r="D2">
-        <v>10.49533912789452</v>
+        <v>8.331444901837509</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>33.46927583699289</v>
+        <v>28.71919619373205</v>
       </c>
       <c r="G2">
-        <v>34.80690967482921</v>
+        <v>34.56344953480723</v>
       </c>
       <c r="H2">
-        <v>15.40028653559042</v>
+        <v>10.50963870624253</v>
       </c>
       <c r="I2">
-        <v>20.96967096590631</v>
+        <v>13.89103619496647</v>
       </c>
       <c r="J2">
-        <v>11.33186244100798</v>
+        <v>8.310492095352064</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.79162394413106</v>
+        <v>11.10396587590264</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.86898759129795</v>
+        <v>21.14602303811892</v>
       </c>
       <c r="C3">
-        <v>10.54071566256679</v>
+        <v>17.04365890761204</v>
       </c>
       <c r="D3">
-        <v>10.44192863122314</v>
+        <v>7.94952153339288</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>33.36177026009133</v>
+        <v>27.50910597743099</v>
       </c>
       <c r="G3">
-        <v>34.56357270112459</v>
+        <v>32.82063695631454</v>
       </c>
       <c r="H3">
-        <v>15.42843967714146</v>
+        <v>10.32423674108669</v>
       </c>
       <c r="I3">
-        <v>21.05269386136897</v>
+        <v>13.81586360597134</v>
       </c>
       <c r="J3">
-        <v>11.31532167394267</v>
+        <v>8.023624291285042</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.85279672142622</v>
+        <v>11.3093733729434</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.50365563295848</v>
+        <v>20.13686697061106</v>
       </c>
       <c r="C4">
-        <v>10.18720076475601</v>
+        <v>16.22464190108006</v>
       </c>
       <c r="D4">
-        <v>10.41081180161269</v>
+        <v>7.709856591555919</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.30660983154578</v>
+        <v>26.77363666823688</v>
       </c>
       <c r="G4">
-        <v>34.42812223927739</v>
+        <v>31.75313978199603</v>
       </c>
       <c r="H4">
-        <v>15.44955248768197</v>
+        <v>10.22042060161453</v>
       </c>
       <c r="I4">
-        <v>21.10955180328134</v>
+        <v>13.78935685678042</v>
       </c>
       <c r="J4">
-        <v>11.30757151028261</v>
+        <v>7.848980495577694</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.89224534767201</v>
+        <v>11.43850992156619</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.35272888074675</v>
+        <v>19.71188003183735</v>
       </c>
       <c r="C5">
-        <v>10.03992388208138</v>
+        <v>15.87996556538853</v>
       </c>
       <c r="D5">
-        <v>10.39856233888271</v>
+        <v>7.61101241284258</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>33.2868712435663</v>
+        <v>26.47616852511779</v>
       </c>
       <c r="G5">
-        <v>34.37648442098389</v>
+        <v>31.3193188027004</v>
       </c>
       <c r="H5">
-        <v>15.45911502735422</v>
+        <v>10.18057773833401</v>
       </c>
       <c r="I5">
-        <v>21.13419314976219</v>
+        <v>13.78323511125167</v>
       </c>
       <c r="J5">
-        <v>11.3050199003665</v>
+        <v>7.778261495749887</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.90879714659867</v>
+        <v>11.49191027209286</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.32755109029291</v>
+        <v>19.64047750300003</v>
       </c>
       <c r="C6">
-        <v>10.015280371576</v>
+        <v>15.82206960972922</v>
       </c>
       <c r="D6">
-        <v>10.39655460456612</v>
+        <v>7.594532086343319</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>33.28375940907267</v>
+        <v>26.42692042677448</v>
       </c>
       <c r="G6">
-        <v>34.36812625280085</v>
+        <v>31.24737262543668</v>
       </c>
       <c r="H6">
-        <v>15.46076069129634</v>
+        <v>10.17410883003874</v>
       </c>
       <c r="I6">
-        <v>21.13837346052379</v>
+        <v>13.78249353659109</v>
       </c>
       <c r="J6">
-        <v>11.30463288651049</v>
+        <v>7.766548112827184</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.91157435886655</v>
+        <v>11.50082475958301</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.5016281574725</v>
+        <v>20.13119126871636</v>
       </c>
       <c r="C7">
-        <v>10.18522729568199</v>
+        <v>16.22003783483931</v>
       </c>
       <c r="D7">
-        <v>10.410644844802</v>
+        <v>7.708528145179394</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.30633252433554</v>
+        <v>26.769615345828</v>
       </c>
       <c r="G7">
-        <v>34.42741136318752</v>
+        <v>31.74728351496328</v>
       </c>
       <c r="H7">
-        <v>15.4496775735956</v>
+        <v>10.21987337402234</v>
       </c>
       <c r="I7">
-        <v>21.10987817830744</v>
+        <v>13.78925569616486</v>
       </c>
       <c r="J7">
-        <v>11.30753464026323</v>
+        <v>7.848024830689782</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.89246664129803</v>
+        <v>11.43922693109213</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.25114872329513</v>
+        <v>22.17623272134896</v>
       </c>
       <c r="C8">
-        <v>10.9064252998534</v>
+        <v>17.8806095376514</v>
       </c>
       <c r="D8">
-        <v>10.4765806625856</v>
+        <v>8.200894790476314</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>33.42996456057222</v>
+        <v>28.30059012307695</v>
       </c>
       <c r="G8">
-        <v>34.72014174943762</v>
+        <v>33.96228502052312</v>
       </c>
       <c r="H8">
-        <v>15.40919758407444</v>
+        <v>10.44359984291771</v>
       </c>
       <c r="I8">
-        <v>20.99707196028341</v>
+        <v>13.86088309622048</v>
       </c>
       <c r="J8">
-        <v>11.32566095964947</v>
+        <v>8.211312125358019</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.8123252057701</v>
+        <v>11.17417531031997</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.63964913505084</v>
+        <v>25.7622469847715</v>
       </c>
       <c r="C9">
-        <v>12.20669493368631</v>
+        <v>20.80116746594204</v>
       </c>
       <c r="D9">
-        <v>10.61876607015449</v>
+        <v>9.121215774687903</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>33.75778806123581</v>
+        <v>31.3496939677681</v>
       </c>
       <c r="G9">
-        <v>35.40239990945884</v>
+        <v>38.30769060075129</v>
       </c>
       <c r="H9">
-        <v>15.36031747194778</v>
+        <v>10.96411443504111</v>
       </c>
       <c r="I9">
-        <v>20.82286510266748</v>
+        <v>14.16857549091187</v>
       </c>
       <c r="J9">
-        <v>11.38020503935202</v>
+        <v>8.932757346079176</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.67008991651754</v>
+        <v>10.67752485693056</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.59955552870298</v>
+        <v>28.14654005745425</v>
       </c>
       <c r="C10">
-        <v>13.0852597636549</v>
+        <v>22.74994452977757</v>
       </c>
       <c r="D10">
-        <v>10.73048379638974</v>
+        <v>9.765481628784062</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>34.04950749177087</v>
+        <v>33.60530068675443</v>
       </c>
       <c r="G10">
-        <v>35.9656996156148</v>
+        <v>41.48367453032952</v>
       </c>
       <c r="H10">
-        <v>15.34317088029587</v>
+        <v>11.39927956721586</v>
       </c>
       <c r="I10">
-        <v>20.72398550976802</v>
+        <v>14.51143928046323</v>
       </c>
       <c r="J10">
-        <v>11.43171029780734</v>
+        <v>9.465323526472361</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.57460118294977</v>
+        <v>10.3256104075702</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.02133626073326</v>
+        <v>29.17881021177424</v>
       </c>
       <c r="C11">
-        <v>13.46715497217175</v>
+        <v>23.59557569989878</v>
       </c>
       <c r="D11">
-        <v>10.78274476030848</v>
+        <v>10.05109447911232</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>34.19293520723063</v>
+        <v>34.63328919868977</v>
       </c>
       <c r="G11">
-        <v>36.23446098255506</v>
+        <v>42.92333937402628</v>
       </c>
       <c r="H11">
-        <v>15.33947513357533</v>
+        <v>11.60929686689104</v>
       </c>
       <c r="I11">
-        <v>20.68541749747467</v>
+        <v>14.69576505668495</v>
       </c>
       <c r="J11">
-        <v>11.45758201836099</v>
+        <v>9.707767165961576</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.53309980864204</v>
+        <v>10.1681016168041</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.17878623648515</v>
+        <v>29.56234790767793</v>
       </c>
       <c r="C12">
-        <v>13.60914165236536</v>
+        <v>23.91008160218443</v>
       </c>
       <c r="D12">
-        <v>10.80272949303357</v>
+        <v>10.15815016325294</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>34.24875650272421</v>
+        <v>35.02279928387033</v>
       </c>
       <c r="G12">
-        <v>36.33794411099772</v>
+        <v>43.46777671292084</v>
       </c>
       <c r="H12">
-        <v>15.33866767490058</v>
+        <v>11.69061019320366</v>
       </c>
       <c r="I12">
-        <v>20.67174236785828</v>
+        <v>14.7698740516159</v>
       </c>
       <c r="J12">
-        <v>11.46772577203788</v>
+        <v>9.79958582665803</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.5176615462932</v>
+        <v>10.10881079512166</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.14497936086687</v>
+        <v>29.48007075213441</v>
       </c>
       <c r="C13">
-        <v>13.5786802244958</v>
+        <v>23.84259863816993</v>
       </c>
       <c r="D13">
-        <v>10.79841696788703</v>
+        <v>10.1351429630276</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>34.23666787392199</v>
+        <v>34.9389008178336</v>
       </c>
       <c r="G13">
-        <v>36.31558264242308</v>
+        <v>43.35055379030302</v>
       </c>
       <c r="H13">
-        <v>15.33881521906951</v>
+        <v>11.67301769056006</v>
       </c>
       <c r="I13">
-        <v>20.6746460829335</v>
+        <v>14.75371811295546</v>
       </c>
       <c r="J13">
-        <v>11.46552578905221</v>
+        <v>9.779810642478434</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.52097413210582</v>
+        <v>10.12156462311152</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.03433592056825</v>
+        <v>29.21051059758761</v>
       </c>
       <c r="C14">
-        <v>13.47888935970704</v>
+        <v>23.62156387687579</v>
       </c>
       <c r="D14">
-        <v>10.78438508775234</v>
+        <v>10.0599241475308</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>34.19749763360013</v>
+        <v>34.66532972864516</v>
       </c>
       <c r="G14">
-        <v>36.24294088320685</v>
+        <v>42.96814484789681</v>
       </c>
       <c r="H14">
-        <v>15.33939682887869</v>
+        <v>11.61595049367706</v>
       </c>
       <c r="I14">
-        <v>20.68427376033794</v>
+        <v>14.70177439474092</v>
       </c>
       <c r="J14">
-        <v>11.45840962973411</v>
+        <v>9.7153209629837</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.53182414017747</v>
+        <v>10.16321671340448</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.96626456903221</v>
+        <v>29.04444385930324</v>
       </c>
       <c r="C15">
-        <v>13.41742027896901</v>
+        <v>23.48543431028441</v>
       </c>
       <c r="D15">
-        <v>10.77581512948782</v>
+        <v>10.01370673370564</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>34.17370010682227</v>
+        <v>34.49778993655257</v>
       </c>
       <c r="G15">
-        <v>36.19866551834711</v>
+        <v>42.73381482971364</v>
       </c>
       <c r="H15">
-        <v>15.33983023108446</v>
+        <v>11.581229150604</v>
       </c>
       <c r="I15">
-        <v>20.69029229148579</v>
+        <v>14.67052523906077</v>
       </c>
       <c r="J15">
-        <v>11.45409578760914</v>
+        <v>9.675820358079964</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.53850617722368</v>
+        <v>10.18877549994828</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.57168023362612</v>
+        <v>28.07803932263961</v>
       </c>
       <c r="C16">
-        <v>13.05993785361117</v>
+        <v>22.6938715209204</v>
       </c>
       <c r="D16">
-        <v>10.72709634091094</v>
+        <v>9.746663325280752</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>34.040347127968</v>
+        <v>33.53815240369176</v>
       </c>
       <c r="G16">
-        <v>35.94837960559764</v>
+        <v>41.38948399503717</v>
       </c>
       <c r="H16">
-        <v>15.34349516170536</v>
+        <v>11.38580127439137</v>
       </c>
       <c r="I16">
-        <v>20.72663571578485</v>
+        <v>14.49998369855972</v>
       </c>
       <c r="J16">
-        <v>11.43006828605172</v>
+        <v>9.449481204956992</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.5773522749353</v>
+        <v>10.33595443156862</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.32570586258715</v>
+        <v>27.47188748461439</v>
       </c>
       <c r="C17">
-        <v>12.83602616008632</v>
+        <v>22.19791477214645</v>
       </c>
       <c r="D17">
-        <v>10.69756902351349</v>
+        <v>9.580904909557651</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>33.96126293983744</v>
+        <v>32.94988164039786</v>
       </c>
       <c r="G17">
-        <v>35.79797943124156</v>
+        <v>40.56343999259708</v>
       </c>
       <c r="H17">
-        <v>15.34679612439137</v>
+        <v>11.26903534395605</v>
       </c>
       <c r="I17">
-        <v>20.75057917192565</v>
+        <v>14.40279168261695</v>
       </c>
       <c r="J17">
-        <v>11.41595057368753</v>
+        <v>9.310659411680023</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.60167838600277</v>
+        <v>10.4268923252251</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.18283335229236</v>
+        <v>27.11830615625501</v>
       </c>
       <c r="C18">
-        <v>12.70556907698046</v>
+        <v>21.9087955762158</v>
       </c>
       <c r="D18">
-        <v>10.68072199852665</v>
+        <v>9.48486276825227</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>33.91678734054906</v>
+        <v>32.61170086966878</v>
       </c>
       <c r="G18">
-        <v>35.71265678017464</v>
+        <v>40.08783386816444</v>
       </c>
       <c r="H18">
-        <v>15.34908098260453</v>
+        <v>11.20300645108165</v>
       </c>
       <c r="I18">
-        <v>20.76495397894096</v>
+        <v>14.34954508803528</v>
       </c>
       <c r="J18">
-        <v>11.40806055914245</v>
+        <v>9.230829398988909</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.61585250007029</v>
+        <v>10.47944105606893</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.13422386532058</v>
+        <v>26.9977364201272</v>
       </c>
       <c r="C19">
-        <v>12.66111437238957</v>
+        <v>21.81023745308335</v>
       </c>
       <c r="D19">
-        <v>10.67504166958213</v>
+        <v>9.45222498003556</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>33.90190337014419</v>
+        <v>32.49723147140699</v>
       </c>
       <c r="G19">
-        <v>35.68397395355055</v>
+        <v>39.92671978668254</v>
       </c>
       <c r="H19">
-        <v>15.34992086963997</v>
+        <v>11.18084313526783</v>
       </c>
       <c r="I19">
-        <v>20.76992440077238</v>
+        <v>14.33196563876577</v>
       </c>
       <c r="J19">
-        <v>11.4054287864172</v>
+        <v>9.203803878185964</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.62068296975884</v>
+        <v>10.49727552494039</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.35203557282473</v>
+        <v>27.53692335271715</v>
       </c>
       <c r="C20">
-        <v>12.8600352545583</v>
+        <v>22.25110837201364</v>
       </c>
       <c r="D20">
-        <v>10.7006982386399</v>
+        <v>9.598623097553789</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>33.96957713037964</v>
+        <v>33.01248626751206</v>
       </c>
       <c r="G20">
-        <v>35.8138679346667</v>
+        <v>40.65142456596893</v>
       </c>
       <c r="H20">
-        <v>15.3464047433411</v>
+        <v>11.28134779378131</v>
       </c>
       <c r="I20">
-        <v>20.74796786945958</v>
+        <v>14.41286138442932</v>
       </c>
       <c r="J20">
-        <v>11.41742964231616</v>
+        <v>9.325435664813631</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.59906996275868</v>
+        <v>10.41718673691957</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.06689710874684</v>
+        <v>29.28988531018113</v>
       </c>
       <c r="C21">
-        <v>13.50827221915199</v>
+        <v>23.68664092475098</v>
       </c>
       <c r="D21">
-        <v>10.78850140925273</v>
+        <v>10.08204771203653</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>34.20896223086592</v>
+        <v>34.74567782366011</v>
       </c>
       <c r="G21">
-        <v>36.26423188765903</v>
+        <v>43.08048695432802</v>
       </c>
       <c r="H21">
-        <v>15.33920991534963</v>
+        <v>11.63266365671643</v>
       </c>
       <c r="I21">
-        <v>20.68142058592364</v>
+        <v>14.71691277737818</v>
       </c>
       <c r="J21">
-        <v>11.46049044650701</v>
+        <v>9.734262903082085</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.52862970984124</v>
+        <v>10.15097299290757</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.52082559302202</v>
+        <v>30.39273158422288</v>
       </c>
       <c r="C22">
-        <v>13.91658516420674</v>
+        <v>24.59161091365155</v>
       </c>
       <c r="D22">
-        <v>10.84701438983019</v>
+        <v>10.39158265948505</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>34.37418813912803</v>
+        <v>35.87981105358124</v>
       </c>
       <c r="G22">
-        <v>36.56848755004633</v>
+        <v>44.66382784941299</v>
       </c>
       <c r="H22">
-        <v>15.33795913058395</v>
+        <v>11.87269746884829</v>
       </c>
       <c r="I22">
-        <v>20.64335067609168</v>
+        <v>14.94084561243417</v>
       </c>
       <c r="J22">
-        <v>11.49065160670293</v>
+        <v>10.0015205200569</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.48420937376746</v>
+        <v>9.979045711128551</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.27980826439908</v>
+        <v>29.8079804255763</v>
       </c>
       <c r="C23">
-        <v>13.70008607892276</v>
+        <v>24.11159515014701</v>
       </c>
       <c r="D23">
-        <v>10.81568583590726</v>
+        <v>10.22696918766902</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>34.28521307603128</v>
+        <v>35.2743697853421</v>
       </c>
       <c r="G23">
-        <v>36.40522411583238</v>
+        <v>43.81912391563313</v>
       </c>
       <c r="H23">
-        <v>15.33831037897184</v>
+        <v>11.74361441171133</v>
       </c>
       <c r="I23">
-        <v>20.66317069072462</v>
+        <v>14.81894641294878</v>
       </c>
       <c r="J23">
-        <v>11.4743709174289</v>
+        <v>9.85887505034175</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.50776980217178</v>
+        <v>10.07062322827604</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.34013644397404</v>
+        <v>27.5075365239625</v>
       </c>
       <c r="C24">
-        <v>12.84918611730963</v>
+        <v>22.22707197636108</v>
       </c>
       <c r="D24">
-        <v>10.69928311890327</v>
+        <v>9.590615024420577</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>33.96581519559069</v>
+        <v>32.98418263707766</v>
       </c>
       <c r="G24">
-        <v>35.80668117072827</v>
+        <v>40.61164892701669</v>
       </c>
       <c r="H24">
-        <v>15.3465804810888</v>
+        <v>11.27577790832749</v>
       </c>
       <c r="I24">
-        <v>20.74914654165425</v>
+        <v>14.40830069676451</v>
       </c>
       <c r="J24">
-        <v>11.41676024971953</v>
+        <v>9.318755380227595</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.60024864299894</v>
+        <v>10.4215737994698</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.2739124316183</v>
+        <v>24.83672862479292</v>
       </c>
       <c r="C25">
-        <v>11.86797406010182</v>
+        <v>20.04625819841891</v>
       </c>
       <c r="D25">
-        <v>10.57898182768162</v>
+        <v>8.877600606658913</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>33.66006991399135</v>
+        <v>30.52139197590454</v>
       </c>
       <c r="G25">
-        <v>35.2066245247873</v>
+        <v>37.13416667397393</v>
       </c>
       <c r="H25">
-        <v>15.37025648616859</v>
+        <v>10.81423756974931</v>
       </c>
       <c r="I25">
-        <v>20.86491282420375</v>
+        <v>14.0658649858466</v>
       </c>
       <c r="J25">
-        <v>11.36342913597897</v>
+        <v>8.736970865319797</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.70697975068731</v>
+        <v>10.80952374366533</v>
       </c>
       <c r="O25">
         <v>0</v>
